--- a/data/trans_bre/P38A-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P38A-Provincia-trans_bre.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">

--- a/data/trans_bre/P38A-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P38A-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -609,12 +609,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -624,12 +624,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,52%</t>
         </is>
       </c>
     </row>
@@ -647,27 +647,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>4,03; 17,86</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0,14; 8,57</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,93; 25,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,15; 9,59</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,64</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,51</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,95%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,9; 9,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,82; 10,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,11; 8,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,15; 11,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,19; 12,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,2; 10,62</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,9%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,34; 8,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,06; 7,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,34; 7,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 9,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 8,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 8,43</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,2%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,15; 8,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,82; 5,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,97; 6,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,35; 10,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,98; 5,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,7; 7,76</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,57</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,01</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,12%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,04%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,86; 12,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,93; 18,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,86; 11,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,96; 15,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,93; 24,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,16; 15,18</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,72</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,29%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 8,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,47; 12,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,6; 6,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 9,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,79; 15,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,63; 6,58</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,21</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,79</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,21%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,5; 7,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,55; 11,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,45; 12,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,57; 8,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,42; 17,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,01; 15,51</t>
         </is>
       </c>
     </row>
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,72</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,82</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,37%</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 7,48</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,86; 8,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,74; 22,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,76; 9,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,16; 9,75</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,6; 43,69</t>
         </is>
       </c>
     </row>
@@ -1244,32 +1244,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,25</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,48</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,9%</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,72; 5,85</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,54; 7,8</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,75; 11,17</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,12; 6,91</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,38; 9,44</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,49; 14,33</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P38A-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P38A-Provincia-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -614,12 +614,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>4,84%</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,21; 6,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 8,57</t>
+          <t>0,63; 12,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,8; 7,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,15; 9,59</t>
+          <t>0,63; 14,0</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>4,99%</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 8,77</t>
+          <t>-1,6; 9,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 10,62</t>
+          <t>-1,77; 12,09</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>4,2%</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 7,62</t>
+          <t>0,39; 7,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 8,43</t>
+          <t>0,41; 8,86</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>8,28</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -854,12 +854,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>-9,12</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>-10,16%</t>
         </is>
       </c>
     </row>
@@ -882,7 +882,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 8,65</t>
+          <t>3,35; 14,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -892,12 +892,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 6,76</t>
+          <t>-44,56; 6,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,35; 10,74</t>
+          <t>4,18; 18,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,7; 7,76</t>
+          <t>-46,91; 7,15</t>
         </is>
       </c>
     </row>
@@ -934,7 +934,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,01</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -949,7 +949,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>6,63%</t>
         </is>
       </c>
     </row>
@@ -972,7 +972,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 11,86</t>
+          <t>-0,85; 12,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 15,18</t>
+          <t>-0,98; 15,49</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,52%</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 6,02</t>
+          <t>-1,49; 6,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 6,58</t>
+          <t>-1,54; 7,04</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,79</t>
+          <t>9,82</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>11,77%</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,45; 12,41</t>
+          <t>4,8; 16,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,01; 15,51</t>
+          <t>5,43; 20,72</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>11,82</t>
+          <t>25,75</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>19,37%</t>
+          <t>53,56%</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,74; 22,13</t>
+          <t>6,94; 51,37</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,6; 43,69</t>
+          <t>10,58; 241,14</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,48</t>
+          <t>10,59</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>13,63%</t>
         </is>
       </c>
     </row>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,75; 11,17</t>
+          <t>3,15; 28,34</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,49; 14,33</t>
+          <t>3,76; 46,28</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P38A-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P38A-Provincia-trans_bre.xlsx
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 6,11</t>
+          <t>-5,26; 5,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,03; 17,86</t>
+          <t>4,31; 17,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,63; 12,09</t>
+          <t>1,0; 12,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 7,29</t>
+          <t>-5,89; 7,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,93; 25,3</t>
+          <t>5,41; 24,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,63; 14,0</t>
+          <t>1,03; 14,43</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 9,45</t>
+          <t>2,03; 10,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,82; 10,73</t>
+          <t>2,81; 10,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 9,89</t>
+          <t>-0,93; 10,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,15; 11,35</t>
+          <t>2,28; 12,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 12,84</t>
+          <t>3,11; 12,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 12,09</t>
+          <t>-1,05; 12,44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 8,37</t>
+          <t>-0,63; 8,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 7,38</t>
+          <t>-1,19; 7,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 7,96</t>
+          <t>0,66; 8,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 9,73</t>
+          <t>-0,69; 9,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 8,5</t>
+          <t>-1,26; 8,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 8,86</t>
+          <t>0,7; 8,91</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,35; 14,08</t>
+          <t>2,91; 13,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 5,04</t>
+          <t>-3,38; 4,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-44,56; 6,39</t>
+          <t>-38,93; 6,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,18; 18,79</t>
+          <t>3,47; 17,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 5,58</t>
+          <t>-3,59; 5,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,91; 7,15</t>
+          <t>-41,54; 7,91</t>
         </is>
       </c>
     </row>
@@ -962,39 +962,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 12,51</t>
+          <t>1,36; 13,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,93; 18,19</t>
+          <t>4,8; 18,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 12,2</t>
+          <t>-1,37; 12,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 15,31</t>
+          <t>1,53; 15,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,93; 24,79</t>
+          <t>5,73; 25,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 15,49</t>
+          <t>-1,56; 16,52</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 8,5</t>
+          <t>-0,16; 8,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,47; 12,12</t>
+          <t>1,34; 12,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 6,43</t>
+          <t>-1,38; 6,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 9,76</t>
+          <t>-0,17; 9,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,79; 15,04</t>
+          <t>1,53; 14,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 7,04</t>
+          <t>-1,42; 7,43</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,5; 7,08</t>
+          <t>0,58; 7,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,55; 11,96</t>
+          <t>2,79; 12,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,8; 16,4</t>
+          <t>5,21; 16,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,57; 8,15</t>
+          <t>0,64; 8,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,42; 17,45</t>
+          <t>3,74; 17,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,43; 20,72</t>
+          <t>5,85; 20,82</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 7,48</t>
+          <t>-0,65; 7,49</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,86; 8,44</t>
+          <t>3,24; 8,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,94; 51,37</t>
+          <t>7,18; 52,37</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 9,74</t>
+          <t>-0,81; 9,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,16; 9,75</t>
+          <t>3,59; 10,05</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,58; 241,14</t>
+          <t>10,93; 242,18</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,72; 5,85</t>
+          <t>2,81; 6,03</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,54; 7,8</t>
+          <t>4,7; 7,97</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,15; 28,34</t>
+          <t>3,28; 28,77</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,12; 6,91</t>
+          <t>3,3; 7,16</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,38; 9,44</t>
+          <t>5,54; 9,68</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,76; 46,28</t>
+          <t>3,91; 46,0</t>
         </is>
       </c>
     </row>
